--- a/all-data/v2-data/22Oct2018/linear-v2-multipop-crude-rate-p.xlsx
+++ b/all-data/v2-data/22Oct2018/linear-v2-multipop-crude-rate-p.xlsx
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="CV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1818,85 +1818,85 @@
         <v>0</v>
       </c>
       <c r="BW5" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="BX5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="BZ5" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="CA5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>5</v>
+        <v>2.001000500250125</v>
       </c>
       <c r="CC5" t="n">
-        <v>6</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="CD5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>7</v>
+        <v>1.00070049034324</v>
       </c>
       <c r="CG5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>8</v>
+        <v>1.00080064051241</v>
       </c>
       <c r="CI5" t="n">
-        <v>11</v>
+        <v>3.003303633997398</v>
       </c>
       <c r="CJ5" t="n">
-        <v>13</v>
+        <v>2.00260338439972</v>
       </c>
       <c r="CK5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>14</v>
+        <v>1.001401962747847</v>
       </c>
       <c r="CM5" t="n">
-        <v>18</v>
+        <v>4.007212983370066</v>
       </c>
       <c r="CN5" t="n">
-        <v>20</v>
+        <v>2.004008016032064</v>
       </c>
       <c r="CO5" t="n">
-        <v>21</v>
+        <v>1.002104419280489</v>
       </c>
       <c r="CP5" t="n">
-        <v>24</v>
+        <v>3.007217321571772</v>
       </c>
       <c r="CQ5" t="n">
-        <v>25</v>
+        <v>1.00250626566416</v>
       </c>
       <c r="CR5" t="n">
-        <v>27</v>
+        <v>2.005414619472576</v>
       </c>
       <c r="CS5" t="n">
-        <v>30</v>
+        <v>3.009027081243731</v>
       </c>
       <c r="CT5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>34</v>
+        <v>4.013646397752358</v>
       </c>
       <c r="CV5" t="n">
-        <v>36</v>
+        <v>2.007226013649137</v>
       </c>
       <c r="CW5" t="n">
-        <v>40</v>
+        <v>4.016064257028113</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -2048,160 +2048,160 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="BI6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="BL6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>6</v>
+        <v>2.001200720432259</v>
       </c>
       <c r="BO6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>7</v>
+        <v>1.00070049034324</v>
       </c>
       <c r="BQ6" t="n">
-        <v>8</v>
+        <v>1.00080064051241</v>
       </c>
       <c r="BR6" t="n">
-        <v>11</v>
+        <v>3.003303633997398</v>
       </c>
       <c r="BS6" t="n">
-        <v>17</v>
+        <v>6.010217369528198</v>
       </c>
       <c r="BT6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>20</v>
+        <v>3.006012024048096</v>
       </c>
       <c r="BV6" t="n">
-        <v>23</v>
+        <v>3.006915906585146</v>
       </c>
       <c r="BW6" t="n">
-        <v>29</v>
+        <v>6.017450606759603</v>
       </c>
       <c r="BX6" t="n">
-        <v>33</v>
+        <v>4.013243704223939</v>
       </c>
       <c r="BY6" t="n">
-        <v>41</v>
+        <v>8.032935033637916</v>
       </c>
       <c r="BZ6" t="n">
-        <v>46</v>
+        <v>5.023106288929073</v>
       </c>
       <c r="CA6" t="n">
-        <v>49</v>
+        <v>3.014772384684956</v>
       </c>
       <c r="CB6" t="n">
-        <v>57</v>
+        <v>8.045861410037212</v>
       </c>
       <c r="CC6" t="n">
-        <v>64</v>
+        <v>7.045088566827697</v>
       </c>
       <c r="CD6" t="n">
-        <v>71</v>
+        <v>7.050055393292376</v>
       </c>
       <c r="CE6" t="n">
-        <v>80</v>
+        <v>9.07258064516129</v>
       </c>
       <c r="CF6" t="n">
-        <v>86</v>
+        <v>6.052047609441193</v>
       </c>
       <c r="CG6" t="n">
-        <v>97</v>
+        <v>11.10774512773907</v>
       </c>
       <c r="CH6" t="n">
-        <v>110</v>
+        <v>13.14459049544995</v>
       </c>
       <c r="CI6" t="n">
-        <v>120</v>
+        <v>10.12145748987854</v>
       </c>
       <c r="CJ6" t="n">
-        <v>127</v>
+        <v>7.090043553124683</v>
       </c>
       <c r="CK6" t="n">
-        <v>136</v>
+        <v>9.124087591240876</v>
       </c>
       <c r="CL6" t="n">
-        <v>146</v>
+        <v>10.14816318246397</v>
       </c>
       <c r="CM6" t="n">
-        <v>161</v>
+        <v>15.24545177355422</v>
       </c>
       <c r="CN6" t="n">
-        <v>173</v>
+        <v>12.21125470642108</v>
       </c>
       <c r="CO6" t="n">
-        <v>190</v>
+        <v>17.32925586136595</v>
       </c>
       <c r="CP6" t="n">
-        <v>202</v>
+        <v>12.24739742804654</v>
       </c>
       <c r="CQ6" t="n">
-        <v>216</v>
+        <v>14.3090760425184</v>
       </c>
       <c r="CR6" t="n">
-        <v>237</v>
+        <v>21.50978182935573</v>
       </c>
       <c r="CS6" t="n">
-        <v>249</v>
+        <v>12.30643010973234</v>
       </c>
       <c r="CT6" t="n">
-        <v>271</v>
+        <v>22.61280707164148</v>
       </c>
       <c r="CU6" t="n">
-        <v>285</v>
+        <v>14.41070509521359</v>
       </c>
       <c r="CV6" t="n">
-        <v>304</v>
+        <v>19.59570957095709</v>
       </c>
       <c r="CW6" t="n">
-        <v>323</v>
+        <v>19.63418414797975</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -2332,181 +2332,181 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AR7" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>3.00240192153723</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>4.004805766920304</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>1.00130169219986</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>2.00300450676014</v>
       </c>
       <c r="BD7" t="n">
-        <v>19</v>
+        <v>4.007614467488227</v>
       </c>
       <c r="BE7" t="n">
-        <v>21</v>
+        <v>2.004208838560978</v>
       </c>
       <c r="BF7" t="n">
-        <v>25</v>
+        <v>4.010025062656641</v>
       </c>
       <c r="BG7" t="n">
-        <v>28</v>
+        <v>3.008423586040915</v>
       </c>
       <c r="BH7" t="n">
-        <v>35</v>
+        <v>7.024586051179127</v>
       </c>
       <c r="BI7" t="n">
-        <v>43</v>
+        <v>8.034548558802852</v>
       </c>
       <c r="BJ7" t="n">
-        <v>48</v>
+        <v>5.024115755627009</v>
       </c>
       <c r="BK7" t="n">
-        <v>53</v>
+        <v>5.026641198351262</v>
       </c>
       <c r="BL7" t="n">
-        <v>66</v>
+        <v>13.08637004227904</v>
       </c>
       <c r="BM7" t="n">
-        <v>77</v>
+        <v>11.0853572508314</v>
       </c>
       <c r="BN7" t="n">
-        <v>82</v>
+        <v>5.04133897963299</v>
       </c>
       <c r="BO7" t="n">
-        <v>95</v>
+        <v>13.12468450277637</v>
       </c>
       <c r="BP7" t="n">
-        <v>105</v>
+        <v>10.10611419909045</v>
       </c>
       <c r="BQ7" t="n">
-        <v>121</v>
+        <v>16.19597125215103</v>
       </c>
       <c r="BR7" t="n">
-        <v>136</v>
+        <v>15.20681265206813</v>
       </c>
       <c r="BS7" t="n">
-        <v>148</v>
+        <v>12.18026796589525</v>
       </c>
       <c r="BT7" t="n">
-        <v>156</v>
+        <v>8.126777732629012</v>
       </c>
       <c r="BU7" t="n">
-        <v>176</v>
+        <v>20.35830618892508</v>
       </c>
       <c r="BV7" t="n">
-        <v>196</v>
+        <v>20.39983680130559</v>
       </c>
       <c r="BW7" t="n">
-        <v>215</v>
+        <v>19.41747572815534</v>
       </c>
       <c r="BX7" t="n">
-        <v>230</v>
+        <v>15.35312180143296</v>
       </c>
       <c r="BY7" t="n">
-        <v>246</v>
+        <v>16.40352675825303</v>
       </c>
       <c r="BZ7" t="n">
-        <v>269</v>
+        <v>23.63580310348371</v>
       </c>
       <c r="CA7" t="n">
-        <v>287</v>
+        <v>18.53186451147946</v>
       </c>
       <c r="CB7" t="n">
-        <v>316</v>
+        <v>29.94630318050392</v>
       </c>
       <c r="CC7" t="n">
-        <v>347</v>
+        <v>32.11436859007562</v>
       </c>
       <c r="CD7" t="n">
-        <v>376</v>
+        <v>30.1330008312552</v>
       </c>
       <c r="CE7" t="n">
-        <v>404</v>
+        <v>29.17882451021259</v>
       </c>
       <c r="CF7" t="n">
-        <v>426</v>
+        <v>22.97890119072488</v>
       </c>
       <c r="CG7" t="n">
-        <v>460</v>
+        <v>35.63941299790356</v>
       </c>
       <c r="CH7" t="n">
-        <v>486</v>
+        <v>27.32814799243221</v>
       </c>
       <c r="CI7" t="n">
-        <v>515</v>
+        <v>30.57459146020032</v>
       </c>
       <c r="CJ7" t="n">
-        <v>539</v>
+        <v>25.36729732586408</v>
       </c>
       <c r="CK7" t="n">
-        <v>565</v>
+        <v>27.55696873343932</v>
       </c>
       <c r="CL7" t="n">
-        <v>590</v>
+        <v>26.56748140276302</v>
       </c>
       <c r="CM7" t="n">
-        <v>612</v>
+        <v>23.43417128248828</v>
       </c>
       <c r="CN7" t="n">
-        <v>647</v>
+        <v>37.42114829466482</v>
       </c>
       <c r="CO7" t="n">
-        <v>671</v>
+        <v>25.72623003537356</v>
       </c>
       <c r="CP7" t="n">
-        <v>696</v>
+        <v>26.87016337059329</v>
       </c>
       <c r="CQ7" t="n">
-        <v>724</v>
+        <v>30.1854247520483</v>
       </c>
       <c r="CR7" t="n">
-        <v>754</v>
+        <v>32.44646333549643</v>
       </c>
       <c r="CS7" t="n">
-        <v>778</v>
+        <v>26.02472348731295</v>
       </c>
       <c r="CT7" t="n">
-        <v>805</v>
+        <v>29.36378466557912</v>
       </c>
       <c r="CU7" t="n">
-        <v>831</v>
+        <v>28.35641836623405</v>
       </c>
       <c r="CV7" t="n">
-        <v>860</v>
+        <v>31.72866520787746</v>
       </c>
       <c r="CW7" t="n">
-        <v>888</v>
+        <v>30.72870939420545</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -2610,208 +2610,208 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>3.002101471029721</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>5.006007208650381</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>1.00130169219986</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>3.004807692307693</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>7.01613711536534</v>
       </c>
       <c r="AT8" t="n">
-        <v>37</v>
+        <v>14.05199237177557</v>
       </c>
       <c r="AU8" t="n">
-        <v>43</v>
+        <v>6.025911419102139</v>
       </c>
       <c r="AV8" t="n">
-        <v>52</v>
+        <v>9.047044632086852</v>
       </c>
       <c r="AW8" t="n">
-        <v>62</v>
+        <v>10.06238679814852</v>
       </c>
       <c r="AX8" t="n">
-        <v>71</v>
+        <v>9.064356934233055</v>
       </c>
       <c r="AY8" t="n">
-        <v>80</v>
+        <v>9.07258064516129</v>
       </c>
       <c r="AZ8" t="n">
-        <v>94</v>
+        <v>14.13284877851807</v>
       </c>
       <c r="BA8" t="n">
-        <v>114</v>
+        <v>20.23062917256727</v>
       </c>
       <c r="BB8" t="n">
-        <v>131</v>
+        <v>17.22565609484244</v>
       </c>
       <c r="BC8" t="n">
-        <v>161</v>
+        <v>30.49090354710845</v>
       </c>
       <c r="BD8" t="n">
-        <v>182</v>
+        <v>21.38928498675901</v>
       </c>
       <c r="BE8" t="n">
-        <v>207</v>
+        <v>25.52843868069029</v>
       </c>
       <c r="BF8" t="n">
-        <v>234</v>
+        <v>27.64693835756707</v>
       </c>
       <c r="BG8" t="n">
-        <v>259</v>
+        <v>25.6647161482394</v>
       </c>
       <c r="BH8" t="n">
-        <v>284</v>
+        <v>25.73075339645945</v>
       </c>
       <c r="BI8" t="n">
-        <v>310</v>
+        <v>26.83178534571723</v>
       </c>
       <c r="BJ8" t="n">
-        <v>334</v>
+        <v>24.82929857231533</v>
       </c>
       <c r="BK8" t="n">
-        <v>366</v>
+        <v>33.21569441561138</v>
       </c>
       <c r="BL8" t="n">
-        <v>401</v>
+        <v>36.46213147202834</v>
       </c>
       <c r="BM8" t="n">
-        <v>446</v>
+        <v>47.10069081013188</v>
       </c>
       <c r="BN8" t="n">
-        <v>486</v>
+        <v>42.04330460374185</v>
       </c>
       <c r="BO8" t="n">
-        <v>527</v>
+        <v>43.28090362081706</v>
       </c>
       <c r="BP8" t="n">
-        <v>569</v>
+        <v>44.53398367087265</v>
       </c>
       <c r="BQ8" t="n">
-        <v>605</v>
+        <v>38.31825439063332</v>
       </c>
       <c r="BR8" t="n">
-        <v>637</v>
+        <v>34.17707999572787</v>
       </c>
       <c r="BS8" t="n">
-        <v>676</v>
+        <v>41.82754182754183</v>
       </c>
       <c r="BT8" t="n">
-        <v>714</v>
+        <v>40.92181779022184</v>
       </c>
       <c r="BU8" t="n">
-        <v>756</v>
+        <v>45.43487667676331</v>
       </c>
       <c r="BV8" t="n">
-        <v>802</v>
+        <v>50.01087192868015</v>
       </c>
       <c r="BW8" t="n">
-        <v>842</v>
+        <v>43.67765887748416</v>
       </c>
       <c r="BX8" t="n">
-        <v>876</v>
+        <v>37.26435773783428</v>
       </c>
       <c r="BY8" t="n">
-        <v>922</v>
+        <v>50.67195417492839</v>
       </c>
       <c r="BZ8" t="n">
-        <v>964</v>
+        <v>46.48074369189907</v>
       </c>
       <c r="CA8" t="n">
-        <v>1003</v>
+        <v>43.34778259419807</v>
       </c>
       <c r="CB8" t="n">
-        <v>1038</v>
+        <v>39.05378263780406</v>
       </c>
       <c r="CC8" t="n">
-        <v>1083</v>
+        <v>50.4654031624986</v>
       </c>
       <c r="CD8" t="n">
-        <v>1124</v>
+        <v>46.19197836863452</v>
       </c>
       <c r="CE8" t="n">
-        <v>1153</v>
+        <v>32.77947326777439</v>
       </c>
       <c r="CF8" t="n">
-        <v>1185</v>
+        <v>36.30175836642088</v>
       </c>
       <c r="CG8" t="n">
-        <v>1217</v>
+        <v>36.43402026642377</v>
       </c>
       <c r="CH8" t="n">
-        <v>1243</v>
+        <v>29.69053328765559</v>
       </c>
       <c r="CI8" t="n">
-        <v>1281</v>
+        <v>43.58297969950683</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1315</v>
+        <v>39.14795624640185</v>
       </c>
       <c r="CK8" t="n">
-        <v>1348</v>
+        <v>38.14147018030513</v>
       </c>
       <c r="CL8" t="n">
-        <v>1380</v>
+        <v>37.12296983758701</v>
       </c>
       <c r="CM8" t="n">
-        <v>1409</v>
+        <v>33.75625654754976</v>
       </c>
       <c r="CN8" t="n">
-        <v>1440</v>
+        <v>36.21495327102804</v>
       </c>
       <c r="CO8" t="n">
-        <v>1468</v>
+        <v>32.81762775433661</v>
       </c>
       <c r="CP8" t="n">
-        <v>1495</v>
+        <v>31.74603174603175</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1524</v>
+        <v>34.21425200566305</v>
       </c>
       <c r="CR8" t="n">
-        <v>1542</v>
+        <v>21.28162686214235</v>
       </c>
       <c r="CS8" t="n">
-        <v>1567</v>
+        <v>29.6454405312463</v>
       </c>
       <c r="CT8" t="n">
-        <v>1588</v>
+        <v>24.96433666191155</v>
       </c>
       <c r="CU8" t="n">
-        <v>1605</v>
+        <v>20.25014889815366</v>
       </c>
       <c r="CV8" t="n">
-        <v>1626</v>
+        <v>25.07762120850251</v>
       </c>
       <c r="CW8" t="n">
-        <v>1653</v>
+        <v>32.34695100035941</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -2873,250 +2873,250 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="Z9" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AC9" t="n">
-        <v>6</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>3.00270243218897</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>2.002202422664932</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>6.010217369528198</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>2.003807233744114</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>4.009221208780195</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>4.010829238945152</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>14.05763630886635</v>
       </c>
       <c r="AK9" t="n">
-        <v>54</v>
+        <v>13.07058113814599</v>
       </c>
       <c r="AL9" t="n">
-        <v>68</v>
+        <v>14.09585179218687</v>
       </c>
       <c r="AM9" t="n">
-        <v>82</v>
+        <v>14.11574914297237</v>
       </c>
       <c r="AN9" t="n">
-        <v>104</v>
+        <v>22.23120452708165</v>
       </c>
       <c r="AO9" t="n">
-        <v>128</v>
+        <v>24.31118314424636</v>
       </c>
       <c r="AP9" t="n">
-        <v>153</v>
+        <v>25.38844318066416</v>
       </c>
       <c r="AQ9" t="n">
-        <v>190</v>
+        <v>37.71661569826708</v>
       </c>
       <c r="AR9" t="n">
-        <v>226</v>
+        <v>36.83241252302026</v>
       </c>
       <c r="AS9" t="n">
-        <v>255</v>
+        <v>29.7588506926629</v>
       </c>
       <c r="AT9" t="n">
-        <v>296</v>
+        <v>42.25061830173124</v>
       </c>
       <c r="AU9" t="n">
-        <v>334</v>
+        <v>39.3130560728326</v>
       </c>
       <c r="AV9" t="n">
-        <v>373</v>
+        <v>40.5110626363353</v>
       </c>
       <c r="AW9" t="n">
-        <v>420</v>
+        <v>49.06054279749478</v>
       </c>
       <c r="AX9" t="n">
-        <v>469</v>
+        <v>51.41118455566048</v>
       </c>
       <c r="AY9" t="n">
-        <v>519</v>
+        <v>52.73705305347537</v>
       </c>
       <c r="AZ9" t="n">
-        <v>566</v>
+        <v>49.81980072079712</v>
       </c>
       <c r="BA9" t="n">
-        <v>621</v>
+        <v>58.64164623094146</v>
       </c>
       <c r="BB9" t="n">
-        <v>670</v>
+        <v>52.51875669882101</v>
       </c>
       <c r="BC9" t="n">
-        <v>726</v>
+        <v>60.38386888074186</v>
       </c>
       <c r="BD9" t="n">
-        <v>775</v>
+        <v>53.11653116531166</v>
       </c>
       <c r="BE9" t="n">
-        <v>822</v>
+        <v>51.20941381564611</v>
       </c>
       <c r="BF9" t="n">
-        <v>859</v>
+        <v>40.47697188491412</v>
       </c>
       <c r="BG9" t="n">
-        <v>908</v>
+        <v>53.89353277606687</v>
       </c>
       <c r="BH9" t="n">
-        <v>954</v>
+        <v>50.85120495246517</v>
       </c>
       <c r="BI9" t="n">
-        <v>989</v>
+        <v>38.8414160470536</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1036</v>
+        <v>52.43195002231147</v>
       </c>
       <c r="BK9" t="n">
-        <v>1092</v>
+        <v>62.86484059272563</v>
       </c>
       <c r="BL9" t="n">
-        <v>1143</v>
+        <v>57.58157389635317</v>
       </c>
       <c r="BM9" t="n">
-        <v>1174</v>
+        <v>35.12349875368231</v>
       </c>
       <c r="BN9" t="n">
-        <v>1215</v>
+        <v>46.6704610130905</v>
       </c>
       <c r="BO9" t="n">
-        <v>1252</v>
+        <v>42.29538180155464</v>
       </c>
       <c r="BP9" t="n">
-        <v>1279</v>
+        <v>30.95975232198143</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1311</v>
+        <v>36.82817355276787</v>
       </c>
       <c r="BR9" t="n">
-        <v>1364</v>
+        <v>61.37100509495136</v>
       </c>
       <c r="BS9" t="n">
-        <v>1404</v>
+        <v>46.53327128897162</v>
       </c>
       <c r="BT9" t="n">
-        <v>1436</v>
+        <v>37.36571695469407</v>
       </c>
       <c r="BU9" t="n">
-        <v>1471</v>
+        <v>41.03646382928831</v>
       </c>
       <c r="BV9" t="n">
-        <v>1508</v>
+        <v>43.57041921808761</v>
       </c>
       <c r="BW9" t="n">
-        <v>1540</v>
+        <v>37.82505910165484</v>
       </c>
       <c r="BX9" t="n">
-        <v>1579</v>
+        <v>46.31278945493409</v>
       </c>
       <c r="BY9" t="n">
-        <v>1603</v>
+        <v>28.5816362986781</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1633</v>
+        <v>35.85514521333811</v>
       </c>
       <c r="CA9" t="n">
-        <v>1656</v>
+        <v>27.5647171620326</v>
       </c>
       <c r="CB9" t="n">
-        <v>1695</v>
+        <v>46.95966285370259</v>
       </c>
       <c r="CC9" t="n">
-        <v>1726</v>
+        <v>37.46676335508823</v>
       </c>
       <c r="CD9" t="n">
-        <v>1760</v>
+        <v>41.2621359223301</v>
       </c>
       <c r="CE9" t="n">
-        <v>1789</v>
+        <v>35.31847521617343</v>
       </c>
       <c r="CF9" t="n">
-        <v>1814</v>
+        <v>30.5399462496946</v>
       </c>
       <c r="CG9" t="n">
-        <v>1838</v>
+        <v>29.4045577064445</v>
       </c>
       <c r="CH9" t="n">
-        <v>1872</v>
+        <v>41.83070866141733</v>
       </c>
       <c r="CI9" t="n">
-        <v>1901</v>
+        <v>35.80688973947401</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1936</v>
+        <v>43.40277777777778</v>
       </c>
       <c r="CK9" t="n">
-        <v>1955</v>
+        <v>23.61715351149782</v>
       </c>
       <c r="CL9" t="n">
-        <v>1974</v>
+        <v>23.67306254672315</v>
       </c>
       <c r="CM9" t="n">
-        <v>1999</v>
+        <v>31.24609423822022</v>
       </c>
       <c r="CN9" t="n">
-        <v>2024</v>
+        <v>31.34403209628887</v>
       </c>
       <c r="CO9" t="n">
-        <v>2052</v>
+        <v>35.22898842476094</v>
       </c>
       <c r="CP9" t="n">
-        <v>2079</v>
+        <v>34.0866052266128</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2104</v>
+        <v>31.66160081053698</v>
       </c>
       <c r="CR9" t="n">
-        <v>2126</v>
+        <v>27.94005588011176</v>
       </c>
       <c r="CS9" t="n">
-        <v>2142</v>
+        <v>20.36141511835073</v>
       </c>
       <c r="CT9" t="n">
-        <v>2159</v>
+        <v>21.68090804744293</v>
       </c>
       <c r="CU9" t="n">
-        <v>2181</v>
+        <v>28.13659035682312</v>
       </c>
       <c r="CV9" t="n">
-        <v>2205</v>
+        <v>30.78896728672226</v>
       </c>
       <c r="CW9" t="n">
-        <v>2225</v>
+        <v>25.72347266881029</v>
       </c>
     </row>
     <row r="10" spans="1:101">
@@ -3175,253 +3175,253 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>4.002401440864519</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>3.00270243218897</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>3.003604325190228</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>8.016032064128256</v>
       </c>
       <c r="AA10" t="n">
-        <v>31</v>
+        <v>11.03420603872003</v>
       </c>
       <c r="AB10" t="n">
-        <v>39</v>
+        <v>8.031322156409999</v>
       </c>
       <c r="AC10" t="n">
-        <v>49</v>
+        <v>10.04924128228319</v>
       </c>
       <c r="AD10" t="n">
-        <v>66</v>
+        <v>17.11294543990336</v>
       </c>
       <c r="AE10" t="n">
-        <v>81</v>
+        <v>15.12249218671237</v>
       </c>
       <c r="AF10" t="n">
-        <v>103</v>
+        <v>22.22895827018288</v>
       </c>
       <c r="AG10" t="n">
-        <v>130</v>
+        <v>27.35562310030395</v>
       </c>
       <c r="AH10" t="n">
-        <v>172</v>
+        <v>42.73504273504274</v>
       </c>
       <c r="AI10" t="n">
-        <v>213</v>
+        <v>41.89230612036375</v>
       </c>
       <c r="AJ10" t="n">
-        <v>260</v>
+        <v>48.25462012320329</v>
       </c>
       <c r="AK10" t="n">
-        <v>327</v>
+        <v>69.2649643337124</v>
       </c>
       <c r="AL10" t="n">
-        <v>394</v>
+        <v>69.74807412034146</v>
       </c>
       <c r="AM10" t="n">
-        <v>454</v>
+        <v>62.85355122564425</v>
       </c>
       <c r="AN10" t="n">
-        <v>511</v>
+        <v>60.06955422067657</v>
       </c>
       <c r="AO10" t="n">
-        <v>579</v>
+        <v>72.17917418533064</v>
       </c>
       <c r="AP10" t="n">
-        <v>635</v>
+        <v>59.7971169247197</v>
       </c>
       <c r="AQ10" t="n">
-        <v>698</v>
+        <v>67.72737045796603</v>
       </c>
       <c r="AR10" t="n">
-        <v>749</v>
+        <v>55.12917522430007</v>
       </c>
       <c r="AS10" t="n">
-        <v>814</v>
+        <v>70.75985194861747</v>
       </c>
       <c r="AT10" t="n">
-        <v>872</v>
+        <v>63.5407537248028</v>
       </c>
       <c r="AU10" t="n">
-        <v>940</v>
+        <v>75.0551876379691</v>
       </c>
       <c r="AV10" t="n">
-        <v>1018</v>
+        <v>86.84034736138945</v>
       </c>
       <c r="AW10" t="n">
-        <v>1089</v>
+        <v>79.67680395017395</v>
       </c>
       <c r="AX10" t="n">
-        <v>1143</v>
+        <v>60.968725302021</v>
       </c>
       <c r="AY10" t="n">
-        <v>1203</v>
+        <v>68.20506991019666</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1253</v>
+        <v>57.16245569909684</v>
       </c>
       <c r="BA10" t="n">
-        <v>1305</v>
+        <v>59.80448533640023</v>
       </c>
       <c r="BB10" t="n">
-        <v>1358</v>
+        <v>61.32839620458228</v>
       </c>
       <c r="BC10" t="n">
-        <v>1409</v>
+        <v>59.36445116982889</v>
       </c>
       <c r="BD10" t="n">
-        <v>1451</v>
+        <v>49.12855304714001</v>
       </c>
       <c r="BE10" t="n">
-        <v>1498</v>
+        <v>55.28111032698188</v>
       </c>
       <c r="BF10" t="n">
-        <v>1540</v>
+        <v>49.64539007092199</v>
       </c>
       <c r="BG10" t="n">
-        <v>1580</v>
+        <v>47.50593824228029</v>
       </c>
       <c r="BH10" t="n">
-        <v>1627</v>
+        <v>56.1328078347068</v>
       </c>
       <c r="BI10" t="n">
-        <v>1666</v>
+        <v>46.79625629949604</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1710</v>
+        <v>53.07599517490954</v>
       </c>
       <c r="BK10" t="n">
-        <v>1742</v>
+        <v>38.75030273674013</v>
       </c>
       <c r="BL10" t="n">
-        <v>1783</v>
+        <v>49.89655592065231</v>
       </c>
       <c r="BM10" t="n">
-        <v>1812</v>
+        <v>35.41768441621885</v>
       </c>
       <c r="BN10" t="n">
-        <v>1834</v>
+        <v>26.9409747734509</v>
       </c>
       <c r="BO10" t="n">
-        <v>1865</v>
+        <v>38.10694529809465</v>
       </c>
       <c r="BP10" t="n">
-        <v>1898</v>
+        <v>40.73068378178228</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1929</v>
+        <v>38.40911906826911</v>
       </c>
       <c r="BR10" t="n">
-        <v>1964</v>
+        <v>43.55400696864111</v>
       </c>
       <c r="BS10" t="n">
-        <v>1991</v>
+        <v>33.71207391684355</v>
       </c>
       <c r="BT10" t="n">
-        <v>2024</v>
+        <v>41.37412236710131</v>
       </c>
       <c r="BU10" t="n">
-        <v>2053</v>
+        <v>36.49175789606141</v>
       </c>
       <c r="BV10" t="n">
-        <v>2077</v>
+        <v>30.29155622870125</v>
       </c>
       <c r="BW10" t="n">
-        <v>2097</v>
+        <v>25.30684550170821</v>
       </c>
       <c r="BX10" t="n">
-        <v>2121</v>
+        <v>30.46071836527478</v>
       </c>
       <c r="BY10" t="n">
-        <v>2142</v>
+        <v>26.72435734283533</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2170</v>
+        <v>35.75989782886334</v>
       </c>
       <c r="CA10" t="n">
-        <v>2196</v>
+        <v>33.31624807790876</v>
       </c>
       <c r="CB10" t="n">
-        <v>2230</v>
+        <v>43.75804375804376</v>
       </c>
       <c r="CC10" t="n">
-        <v>2245</v>
+        <v>19.34235976789168</v>
       </c>
       <c r="CD10" t="n">
-        <v>2272</v>
+        <v>34.93788819875776</v>
       </c>
       <c r="CE10" t="n">
-        <v>2283</v>
+        <v>14.25424387715434</v>
       </c>
       <c r="CF10" t="n">
-        <v>2311</v>
+        <v>36.4156587332553</v>
       </c>
       <c r="CG10" t="n">
-        <v>2330</v>
+        <v>24.77183833116037</v>
       </c>
       <c r="CH10" t="n">
-        <v>2348</v>
+        <v>23.52326189231574</v>
       </c>
       <c r="CI10" t="n">
-        <v>2367</v>
+        <v>24.89191667758417</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2382</v>
+        <v>19.69020740351798</v>
       </c>
       <c r="CK10" t="n">
-        <v>2394</v>
+        <v>15.77701814357087</v>
       </c>
       <c r="CL10" t="n">
-        <v>2407</v>
+        <v>17.12103252996181</v>
       </c>
       <c r="CM10" t="n">
-        <v>2427</v>
+        <v>26.4096130991681</v>
       </c>
       <c r="CN10" t="n">
-        <v>2439</v>
+        <v>15.8709165454305</v>
       </c>
       <c r="CO10" t="n">
-        <v>2458</v>
+        <v>25.19225669583665</v>
       </c>
       <c r="CP10" t="n">
-        <v>2471</v>
+        <v>17.26656926550671</v>
       </c>
       <c r="CQ10" t="n">
-        <v>2492</v>
+        <v>27.97016515716569</v>
       </c>
       <c r="CR10" t="n">
-        <v>2509</v>
+        <v>22.69389934588173</v>
       </c>
       <c r="CS10" t="n">
-        <v>2525</v>
+        <v>21.40468227424749</v>
       </c>
       <c r="CT10" t="n">
-        <v>2533</v>
+        <v>10.71380741931164</v>
       </c>
       <c r="CU10" t="n">
-        <v>2547</v>
+        <v>18.78438212800215</v>
       </c>
       <c r="CV10" t="n">
-        <v>2562</v>
+        <v>20.16671148158107</v>
       </c>
       <c r="CW10" t="n">
-        <v>2578</v>
+        <v>21.55753166262463</v>
       </c>
     </row>
     <row r="11" spans="1:101">
@@ -3459,274 +3459,274 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>2.001200720432259</v>
       </c>
       <c r="Q11" t="n">
-        <v>11</v>
+        <v>5.005506056662329</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>2.00260338439972</v>
       </c>
       <c r="S11" t="n">
-        <v>27</v>
+        <v>14.03790233630803</v>
       </c>
       <c r="T11" t="n">
-        <v>34</v>
+        <v>7.023881196066626</v>
       </c>
       <c r="U11" t="n">
-        <v>52</v>
+        <v>18.0940892641737</v>
       </c>
       <c r="V11" t="n">
-        <v>75</v>
+        <v>23.17380352644836</v>
       </c>
       <c r="W11" t="n">
-        <v>103</v>
+        <v>28.29140143477822</v>
       </c>
       <c r="X11" t="n">
-        <v>132</v>
+        <v>29.38792055127685</v>
       </c>
       <c r="Y11" t="n">
-        <v>175</v>
+        <v>43.76590330788804</v>
       </c>
       <c r="Z11" t="n">
-        <v>209</v>
+        <v>34.72576856296599</v>
       </c>
       <c r="AA11" t="n">
-        <v>246</v>
+        <v>37.93315562846012</v>
       </c>
       <c r="AB11" t="n">
-        <v>302</v>
+        <v>57.74386471437409</v>
       </c>
       <c r="AC11" t="n">
-        <v>366</v>
+        <v>66.43138883122276</v>
       </c>
       <c r="AD11" t="n">
-        <v>443</v>
+        <v>80.56921628125981</v>
       </c>
       <c r="AE11" t="n">
-        <v>510</v>
+        <v>70.60063224446786</v>
       </c>
       <c r="AF11" t="n">
-        <v>593</v>
+        <v>88.23216753481449</v>
       </c>
       <c r="AG11" t="n">
-        <v>665</v>
+        <v>77.1290840921264</v>
       </c>
       <c r="AH11" t="n">
-        <v>757</v>
+        <v>99.53478307908688</v>
       </c>
       <c r="AI11" t="n">
-        <v>860</v>
+        <v>112.691466083151</v>
       </c>
       <c r="AJ11" t="n">
-        <v>950</v>
+        <v>99.44751381215468</v>
       </c>
       <c r="AK11" t="n">
-        <v>1026</v>
+        <v>84.68910184978827</v>
       </c>
       <c r="AL11" t="n">
-        <v>1099</v>
+        <v>82.01325693742277</v>
       </c>
       <c r="AM11" t="n">
-        <v>1192</v>
+        <v>105.5858310626703</v>
       </c>
       <c r="AN11" t="n">
-        <v>1268</v>
+        <v>87.03618873110398</v>
       </c>
       <c r="AO11" t="n">
-        <v>1353</v>
+        <v>98.29998843529548</v>
       </c>
       <c r="AP11" t="n">
-        <v>1412</v>
+        <v>68.70051234280392</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1482</v>
+        <v>82.17891523831885</v>
       </c>
       <c r="AR11" t="n">
-        <v>1539</v>
+        <v>67.36792341330812</v>
       </c>
       <c r="AS11" t="n">
-        <v>1600</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="AT11" t="n">
-        <v>1648</v>
+        <v>57.47126436781609</v>
       </c>
       <c r="AU11" t="n">
-        <v>1701</v>
+        <v>63.86311603807687</v>
       </c>
       <c r="AV11" t="n">
-        <v>1750</v>
+        <v>59.3939393939394</v>
       </c>
       <c r="AW11" t="n">
-        <v>1799</v>
+        <v>59.74881112059505</v>
       </c>
       <c r="AX11" t="n">
-        <v>1842</v>
+        <v>52.7089973032606</v>
       </c>
       <c r="AY11" t="n">
-        <v>1895</v>
+        <v>65.39173349784085</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1942</v>
+        <v>58.32712831968231</v>
       </c>
       <c r="BA11" t="n">
-        <v>1977</v>
+        <v>43.62457933441357</v>
       </c>
       <c r="BB11" t="n">
-        <v>2014</v>
+        <v>46.33107938893063</v>
       </c>
       <c r="BC11" t="n">
-        <v>2042</v>
+        <v>35.1847197788389</v>
       </c>
       <c r="BD11" t="n">
-        <v>2075</v>
+        <v>41.6403785488959</v>
       </c>
       <c r="BE11" t="n">
-        <v>2110</v>
+        <v>44.35994930291508</v>
       </c>
       <c r="BF11" t="n">
-        <v>2137</v>
+        <v>34.33803891644411</v>
       </c>
       <c r="BG11" t="n">
-        <v>2162</v>
+        <v>31.89589180913498</v>
       </c>
       <c r="BH11" t="n">
-        <v>2181</v>
+        <v>24.2997825808927</v>
       </c>
       <c r="BI11" t="n">
-        <v>2206</v>
+        <v>32.07595586348474</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2231</v>
+        <v>32.17917363882096</v>
       </c>
       <c r="BK11" t="n">
-        <v>2251</v>
+        <v>25.80978190734288</v>
       </c>
       <c r="BL11" t="n">
-        <v>2280</v>
+        <v>37.56476683937824</v>
       </c>
       <c r="BM11" t="n">
-        <v>2299</v>
+        <v>24.67212050383067</v>
       </c>
       <c r="BN11" t="n">
-        <v>2325</v>
+        <v>33.87622149837134</v>
       </c>
       <c r="BO11" t="n">
-        <v>2351</v>
+        <v>33.99137142110079</v>
       </c>
       <c r="BP11" t="n">
-        <v>2372</v>
+        <v>27.5301520713162</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2393</v>
+        <v>27.60615222821086</v>
       </c>
       <c r="BR11" t="n">
-        <v>2406</v>
+        <v>17.11877798261786</v>
       </c>
       <c r="BS11" t="n">
-        <v>2427</v>
+        <v>27.7300937541265</v>
       </c>
       <c r="BT11" t="n">
-        <v>2442</v>
+        <v>19.84652024345065</v>
       </c>
       <c r="BU11" t="n">
-        <v>2459</v>
+        <v>22.54342925341466</v>
       </c>
       <c r="BV11" t="n">
-        <v>2471</v>
+        <v>15.9383716296985</v>
       </c>
       <c r="BW11" t="n">
-        <v>2497</v>
+        <v>34.65280554444889</v>
       </c>
       <c r="BX11" t="n">
-        <v>2513</v>
+        <v>21.37037531721651</v>
       </c>
       <c r="BY11" t="n">
-        <v>2540</v>
+        <v>36.19302949061662</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2556</v>
+        <v>21.4938205265986</v>
       </c>
       <c r="CA11" t="n">
-        <v>2571</v>
+        <v>20.19114281868353</v>
       </c>
       <c r="CB11" t="n">
-        <v>2583</v>
+        <v>16.17904813266819</v>
       </c>
       <c r="CC11" t="n">
-        <v>2596</v>
+        <v>17.55807671528903</v>
       </c>
       <c r="CD11" t="n">
-        <v>2617</v>
+        <v>28.44372206420154</v>
       </c>
       <c r="CE11" t="n">
-        <v>2634</v>
+        <v>23.07901167526473</v>
       </c>
       <c r="CF11" t="n">
-        <v>2646</v>
+        <v>16.3176502583628</v>
       </c>
       <c r="CG11" t="n">
-        <v>2657</v>
+        <v>14.98025330246493</v>
       </c>
       <c r="CH11" t="n">
-        <v>2667</v>
+        <v>13.63698349924996</v>
       </c>
       <c r="CI11" t="n">
-        <v>2673</v>
+        <v>8.188890405350074</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2679</v>
+        <v>8.195601693757682</v>
       </c>
       <c r="CK11" t="n">
-        <v>2693</v>
+        <v>19.15970986725058</v>
       </c>
       <c r="CL11" t="n">
-        <v>2705</v>
+        <v>16.44962302947224</v>
       </c>
       <c r="CM11" t="n">
-        <v>2722</v>
+        <v>23.35806540258313</v>
       </c>
       <c r="CN11" t="n">
-        <v>2733</v>
+        <v>15.13692032475575</v>
       </c>
       <c r="CO11" t="n">
-        <v>2746</v>
+        <v>17.92114695340502</v>
       </c>
       <c r="CP11" t="n">
-        <v>2755</v>
+        <v>12.42236024844721</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2767</v>
+        <v>16.59062629614268</v>
       </c>
       <c r="CR11" t="n">
-        <v>2777</v>
+        <v>13.84466288245881</v>
       </c>
       <c r="CS11" t="n">
-        <v>2785</v>
+        <v>11.08801108801109</v>
       </c>
       <c r="CT11" t="n">
-        <v>2793</v>
+        <v>11.10031913417511</v>
       </c>
       <c r="CU11" t="n">
-        <v>2799</v>
+        <v>8.332176086654631</v>
       </c>
       <c r="CV11" t="n">
-        <v>2804</v>
+        <v>6.948304613674264</v>
       </c>
       <c r="CW11" t="n">
-        <v>2818</v>
+        <v>19.49317738791423</v>
       </c>
     </row>
   </sheetData>
